--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1722.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1722.xlsx
@@ -354,7 +354,7 @@
         <v>0.9660741961142832</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.894233993938677</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1722.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1722.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4539732078825164</v>
+        <v>0.8634250164031982</v>
       </c>
       <c r="B1">
-        <v>0.9660741961142832</v>
+        <v>1.81453537940979</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>2.894233993938677</v>
+        <v>1.914210915565491</v>
       </c>
       <c r="E1">
-        <v>1.821062921292997</v>
+        <v>1.132213473320007</v>
       </c>
     </row>
   </sheetData>
